--- a/template/potem5.xlsx
+++ b/template/potem5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CADCB318-1E42-2842-BAC7-D4D9B79C852A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF6594-B024-504B-9CA4-B18D7184C6A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HA0080" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>轩威服装有限公司</t>
-  </si>
   <si>
     <t>广东省东莞市沙田镇义沙村天宅东路2号</t>
   </si>
@@ -56,6 +53,10 @@
   </si>
   <si>
     <t xml:space="preserve">REMARKS: </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩信服装有限公司</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -165,18 +166,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -270,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -278,119 +273,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -708,7 +711,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -724,14 +727,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
+      <c r="A1" s="7" t="s">
+        <v>10</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -754,14 +757,14 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>1</v>
+      <c r="A2" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -784,14 +787,14 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>2</v>
+      <c r="A3" s="11" t="s">
+        <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -814,12 +817,12 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -842,12 +845,12 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -870,12 +873,12 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -898,12 +901,12 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -926,14 +929,14 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>3</v>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>2</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -956,12 +959,12 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -984,14 +987,14 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13" t="s">
-        <v>4</v>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="23" t="s">
+        <v>3</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1014,12 +1017,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1042,14 +1045,14 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
-        <v>5</v>
+      <c r="A12" s="25" t="s">
+        <v>4</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1072,12 +1075,12 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1100,12 +1103,12 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1128,20 +1131,20 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1164,12 +1167,12 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1192,12 +1195,12 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1220,12 +1223,12 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="25"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1248,12 +1251,12 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1276,12 +1279,12 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1304,12 +1307,12 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="25"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1332,12 +1335,12 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1360,12 +1363,12 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1388,14 +1391,14 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
+      <c r="A24" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1418,12 +1421,12 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1446,12 +1449,12 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1478,7 +1481,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="34"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1502,11 +1505,11 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>

--- a/template/potem5.xlsx
+++ b/template/potem5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF6594-B024-504B-9CA4-B18D7184C6A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FA5A2E4-739E-5045-85D7-60BF180CAB7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HA0080" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -277,20 +277,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -321,17 +309,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -339,10 +321,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,9 +348,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -383,9 +358,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -394,6 +366,39 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -711,7 +716,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -727,14 +732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -757,14 +762,14 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -787,14 +792,14 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -817,12 +822,12 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -845,12 +850,12 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -873,12 +878,12 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -901,12 +906,12 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -929,14 +934,14 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -959,12 +964,12 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -987,14 +992,14 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1017,12 +1022,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1045,14 +1050,14 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1075,12 +1080,12 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1103,12 +1108,12 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1131,20 +1136,20 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1167,12 +1172,12 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1195,12 +1200,12 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1223,12 +1228,12 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1251,12 +1256,12 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1279,12 +1284,12 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1307,12 +1312,12 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1335,12 +1340,12 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1363,12 +1368,12 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1391,14 +1396,14 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1421,12 +1426,12 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1449,12 +1454,12 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
